--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5575443333333333</v>
+        <v>0.269851</v>
       </c>
       <c r="H2">
-        <v>1.672633</v>
+        <v>0.809553</v>
       </c>
       <c r="I2">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034023</v>
       </c>
       <c r="J2">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034022</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3206743333333333</v>
+        <v>0.01289566666666667</v>
       </c>
       <c r="N2">
-        <v>0.962023</v>
+        <v>0.038687</v>
       </c>
       <c r="O2">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389933</v>
       </c>
       <c r="P2">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389932</v>
       </c>
       <c r="Q2">
-        <v>0.1787901573954444</v>
+        <v>0.003479908545666667</v>
       </c>
       <c r="R2">
-        <v>1.609111416559</v>
+        <v>0.03131917691099999</v>
       </c>
       <c r="S2">
-        <v>0.009339137744947754</v>
+        <v>4.782892301872858E-05</v>
       </c>
       <c r="T2">
-        <v>0.009339137744947754</v>
+        <v>4.782892301872856E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5575443333333333</v>
+        <v>0.269851</v>
       </c>
       <c r="H3">
-        <v>1.672633</v>
+        <v>0.809553</v>
       </c>
       <c r="I3">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034023</v>
       </c>
       <c r="J3">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034022</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.531382</v>
       </c>
       <c r="O3">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522487</v>
       </c>
       <c r="P3">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522486</v>
       </c>
       <c r="Q3">
-        <v>1.027996896534</v>
+        <v>0.497549654694</v>
       </c>
       <c r="R3">
-        <v>9.251972068805999</v>
+        <v>4.477946892246</v>
       </c>
       <c r="S3">
-        <v>0.05369761265367314</v>
+        <v>0.006838474005872281</v>
       </c>
       <c r="T3">
-        <v>0.05369761265367314</v>
+        <v>0.006838474005872278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5575443333333333</v>
+        <v>0.269851</v>
       </c>
       <c r="H4">
-        <v>1.672633</v>
+        <v>0.809553</v>
       </c>
       <c r="I4">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034023</v>
       </c>
       <c r="J4">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034022</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.023915333333333</v>
+        <v>11.405113</v>
       </c>
       <c r="N4">
-        <v>3.071746</v>
+        <v>34.215339</v>
       </c>
       <c r="O4">
-        <v>0.156247451930988</v>
+        <v>0.5211484087104628</v>
       </c>
       <c r="P4">
-        <v>0.1562474519309881</v>
+        <v>0.5211484087104626</v>
       </c>
       <c r="Q4">
-        <v>0.5708781919131111</v>
+        <v>3.077681148163</v>
       </c>
       <c r="R4">
-        <v>5.137903727217999</v>
+        <v>27.699130333467</v>
       </c>
       <c r="S4">
-        <v>0.02981993051256808</v>
+        <v>0.04230058715048211</v>
       </c>
       <c r="T4">
-        <v>0.02981993051256808</v>
+        <v>0.0423005871504821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5575443333333333</v>
+        <v>0.269851</v>
       </c>
       <c r="H5">
-        <v>1.672633</v>
+        <v>0.809553</v>
       </c>
       <c r="I5">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034023</v>
       </c>
       <c r="J5">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1267253333333333</v>
+        <v>0.2091206666666666</v>
       </c>
       <c r="N5">
-        <v>0.380176</v>
+        <v>0.627362</v>
       </c>
       <c r="O5">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="P5">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="Q5">
-        <v>0.07065499148977777</v>
+        <v>0.05643142102066667</v>
       </c>
       <c r="R5">
-        <v>0.6358949234079999</v>
+        <v>0.5078827891859999</v>
       </c>
       <c r="S5">
-        <v>0.003690676866689525</v>
+        <v>0.0007756106393071469</v>
       </c>
       <c r="T5">
-        <v>0.003690676866689525</v>
+        <v>0.0007756106393071468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5575443333333333</v>
+        <v>0.269851</v>
       </c>
       <c r="H6">
-        <v>1.672633</v>
+        <v>0.809553</v>
       </c>
       <c r="I6">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034023</v>
       </c>
       <c r="J6">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.238056</v>
+        <v>8.413654666666666</v>
       </c>
       <c r="N6">
-        <v>9.714167999999999</v>
+        <v>25.240964</v>
       </c>
       <c r="O6">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="P6">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="Q6">
-        <v>1.805359773816</v>
+        <v>2.270433125454666</v>
       </c>
       <c r="R6">
-        <v>16.248237964344</v>
+        <v>20.433898129092</v>
       </c>
       <c r="S6">
-        <v>0.09430330982685821</v>
+        <v>0.03120552444165997</v>
       </c>
       <c r="T6">
-        <v>0.09430330982685821</v>
+        <v>0.03120552444165996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>3.61939</v>
       </c>
       <c r="I7">
-        <v>0.4129794149833874</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="J7">
-        <v>0.4129794149833873</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3206743333333333</v>
+        <v>0.01289566666666667</v>
       </c>
       <c r="N7">
-        <v>0.962023</v>
+        <v>0.038687</v>
       </c>
       <c r="O7">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389933</v>
       </c>
       <c r="P7">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389932</v>
       </c>
       <c r="Q7">
-        <v>0.3868818251077778</v>
+        <v>0.01555814899222222</v>
       </c>
       <c r="R7">
-        <v>3.48193642597</v>
+        <v>0.14002334093</v>
       </c>
       <c r="S7">
-        <v>0.02020884543273178</v>
+        <v>0.0002138359387029089</v>
       </c>
       <c r="T7">
-        <v>0.02020884543273178</v>
+        <v>0.0002138359387029089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.61939</v>
       </c>
       <c r="I8">
-        <v>0.4129794149833874</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="J8">
-        <v>0.4129794149833873</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.531382</v>
       </c>
       <c r="O8">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522487</v>
       </c>
       <c r="P8">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522486</v>
       </c>
       <c r="Q8">
         <v>2.22446985522</v>
@@ -948,10 +948,10 @@
         <v>20.02022869698</v>
       </c>
       <c r="S8">
-        <v>0.116195604333155</v>
+        <v>0.03057379125531506</v>
       </c>
       <c r="T8">
-        <v>0.116195604333155</v>
+        <v>0.03057379125531505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.61939</v>
       </c>
       <c r="I9">
-        <v>0.4129794149833874</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="J9">
-        <v>0.4129794149833873</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.023915333333333</v>
+        <v>11.405113</v>
       </c>
       <c r="N9">
-        <v>3.071746</v>
+        <v>34.215339</v>
       </c>
       <c r="O9">
-        <v>0.156247451930988</v>
+        <v>0.5211484087104628</v>
       </c>
       <c r="P9">
-        <v>0.1562474519309881</v>
+        <v>0.5211484087104626</v>
       </c>
       <c r="Q9">
-        <v>1.235316306104445</v>
+        <v>13.75985064702333</v>
       </c>
       <c r="R9">
-        <v>11.11784675494</v>
+        <v>123.83865582321</v>
       </c>
       <c r="S9">
-        <v>0.06452698129110439</v>
+        <v>0.1891195784915669</v>
       </c>
       <c r="T9">
-        <v>0.06452698129110439</v>
+        <v>0.1891195784915669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.61939</v>
       </c>
       <c r="I10">
-        <v>0.4129794149833874</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="J10">
-        <v>0.4129794149833873</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1267253333333333</v>
+        <v>0.2091206666666666</v>
       </c>
       <c r="N10">
-        <v>0.380176</v>
+        <v>0.627362</v>
       </c>
       <c r="O10">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="P10">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="Q10">
-        <v>0.1528894680711111</v>
+        <v>0.2522964165755556</v>
       </c>
       <c r="R10">
-        <v>1.37600521264</v>
+        <v>2.27066774918</v>
       </c>
       <c r="S10">
-        <v>0.007986210330973622</v>
+        <v>0.003467638797956273</v>
       </c>
       <c r="T10">
-        <v>0.007986210330973622</v>
+        <v>0.003467638797956273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.61939</v>
       </c>
       <c r="I11">
-        <v>0.4129794149833874</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="J11">
-        <v>0.4129794149833873</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.238056</v>
+        <v>8.413654666666666</v>
       </c>
       <c r="N11">
-        <v>9.714167999999999</v>
+        <v>25.240964</v>
       </c>
       <c r="O11">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="P11">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="Q11">
-        <v>3.90659583528</v>
+        <v>10.15076585466222</v>
       </c>
       <c r="R11">
-        <v>35.15936251751999</v>
+        <v>91.35689269196</v>
       </c>
       <c r="S11">
-        <v>0.2040617735954225</v>
+        <v>0.1395152177916698</v>
       </c>
       <c r="T11">
-        <v>0.2040617735954225</v>
+        <v>0.1395152177916698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.610521</v>
+      </c>
+      <c r="H12">
+        <v>1.831563</v>
+      </c>
+      <c r="I12">
+        <v>0.1836375773627523</v>
+      </c>
+      <c r="J12">
+        <v>0.1836375773627523</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.2917816666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.875345</v>
-      </c>
-      <c r="I12">
-        <v>0.09987856130691447</v>
-      </c>
-      <c r="J12">
-        <v>0.09987856130691447</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M12">
-        <v>0.3206743333333333</v>
+        <v>0.01289566666666667</v>
       </c>
       <c r="N12">
-        <v>0.962023</v>
+        <v>0.038687</v>
       </c>
       <c r="O12">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389933</v>
       </c>
       <c r="P12">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389932</v>
       </c>
       <c r="Q12">
-        <v>0.09356689143722222</v>
+        <v>0.007873075308999999</v>
       </c>
       <c r="R12">
-        <v>0.842102022935</v>
+        <v>0.07085767778099999</v>
       </c>
       <c r="S12">
-        <v>0.004887484301308949</v>
+        <v>0.0001082099451560942</v>
       </c>
       <c r="T12">
-        <v>0.004887484301308949</v>
+        <v>0.0001082099451560942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2917816666666667</v>
+        <v>0.610521</v>
       </c>
       <c r="H13">
-        <v>0.875345</v>
+        <v>1.831563</v>
       </c>
       <c r="I13">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="J13">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.531382</v>
       </c>
       <c r="O13">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522487</v>
       </c>
       <c r="P13">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522486</v>
       </c>
       <c r="Q13">
-        <v>0.53798528631</v>
+        <v>1.125674956674</v>
       </c>
       <c r="R13">
-        <v>4.84186757679</v>
+        <v>10.131074610066</v>
       </c>
       <c r="S13">
-        <v>0.02810176335653399</v>
+        <v>0.01547161948089557</v>
       </c>
       <c r="T13">
-        <v>0.02810176335653399</v>
+        <v>0.01547161948089557</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2917816666666667</v>
+        <v>0.610521</v>
       </c>
       <c r="H14">
-        <v>0.875345</v>
+        <v>1.831563</v>
       </c>
       <c r="I14">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="J14">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.023915333333333</v>
+        <v>11.405113</v>
       </c>
       <c r="N14">
-        <v>3.071746</v>
+        <v>34.215339</v>
       </c>
       <c r="O14">
-        <v>0.156247451930988</v>
+        <v>0.5211484087104628</v>
       </c>
       <c r="P14">
-        <v>0.1562474519309881</v>
+        <v>0.5211484087104626</v>
       </c>
       <c r="Q14">
-        <v>0.2987597224855555</v>
+        <v>6.963060993872999</v>
       </c>
       <c r="R14">
-        <v>2.68883750237</v>
+        <v>62.667548944857</v>
       </c>
       <c r="S14">
-        <v>0.01560577070673836</v>
+        <v>0.09570243122204286</v>
       </c>
       <c r="T14">
-        <v>0.01560577070673836</v>
+        <v>0.09570243122204285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2917816666666667</v>
+        <v>0.610521</v>
       </c>
       <c r="H15">
-        <v>0.875345</v>
+        <v>1.831563</v>
       </c>
       <c r="I15">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="J15">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1267253333333333</v>
+        <v>0.2091206666666666</v>
       </c>
       <c r="N15">
-        <v>0.380176</v>
+        <v>0.627362</v>
       </c>
       <c r="O15">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="P15">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="Q15">
-        <v>0.03697612896888889</v>
+        <v>0.127672558534</v>
       </c>
       <c r="R15">
-        <v>0.33278516072</v>
+        <v>1.149053026806</v>
       </c>
       <c r="S15">
-        <v>0.001931455102148733</v>
+        <v>0.00175477053307358</v>
       </c>
       <c r="T15">
-        <v>0.001931455102148734</v>
+        <v>0.00175477053307358</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2917816666666667</v>
+        <v>0.610521</v>
       </c>
       <c r="H16">
-        <v>0.875345</v>
+        <v>1.831563</v>
       </c>
       <c r="I16">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="J16">
-        <v>0.09987856130691447</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.238056</v>
+        <v>8.413654666666666</v>
       </c>
       <c r="N16">
-        <v>9.714167999999999</v>
+        <v>25.240964</v>
       </c>
       <c r="O16">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="P16">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="Q16">
-        <v>0.94480537644</v>
+        <v>5.136712860747999</v>
       </c>
       <c r="R16">
-        <v>8.503248387959999</v>
+        <v>46.230415746732</v>
       </c>
       <c r="S16">
-        <v>0.04935208784018443</v>
+        <v>0.07060054618158422</v>
       </c>
       <c r="T16">
-        <v>0.04935208784018443</v>
+        <v>0.07060054618158422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3437603333333333</v>
+        <v>0.3033006666666666</v>
       </c>
       <c r="H17">
-        <v>1.031281</v>
+        <v>0.9099019999999999</v>
       </c>
       <c r="I17">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301547</v>
       </c>
       <c r="J17">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301548</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3206743333333333</v>
+        <v>0.01289566666666667</v>
       </c>
       <c r="N17">
-        <v>0.962023</v>
+        <v>0.038687</v>
       </c>
       <c r="O17">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389933</v>
       </c>
       <c r="P17">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389932</v>
       </c>
       <c r="Q17">
-        <v>0.1102351157181111</v>
+        <v>0.00391126429711111</v>
       </c>
       <c r="R17">
-        <v>0.9921160414629998</v>
+        <v>0.03520137867399999</v>
       </c>
       <c r="S17">
-        <v>0.005758152154565564</v>
+        <v>5.375760785592439E-05</v>
       </c>
       <c r="T17">
-        <v>0.005758152154565564</v>
+        <v>5.375760785592439E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3437603333333333</v>
+        <v>0.3033006666666666</v>
       </c>
       <c r="H18">
-        <v>1.031281</v>
+        <v>0.9099019999999999</v>
       </c>
       <c r="I18">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301547</v>
       </c>
       <c r="J18">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301548</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.531382</v>
       </c>
       <c r="O18">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522487</v>
       </c>
       <c r="P18">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522486</v>
       </c>
       <c r="Q18">
-        <v>0.6338232400379998</v>
+        <v>0.5592239493959998</v>
       </c>
       <c r="R18">
-        <v>5.704409160341999</v>
+        <v>5.033015544563999</v>
       </c>
       <c r="S18">
-        <v>0.0331078770268748</v>
+        <v>0.007686144298015321</v>
       </c>
       <c r="T18">
-        <v>0.0331078770268748</v>
+        <v>0.007686144298015321</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3437603333333333</v>
+        <v>0.3033006666666666</v>
       </c>
       <c r="H19">
-        <v>1.031281</v>
+        <v>0.9099019999999999</v>
       </c>
       <c r="I19">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301547</v>
       </c>
       <c r="J19">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301548</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.023915333333333</v>
+        <v>11.405113</v>
       </c>
       <c r="N19">
-        <v>3.071746</v>
+        <v>34.215339</v>
       </c>
       <c r="O19">
-        <v>0.156247451930988</v>
+        <v>0.5211484087104628</v>
       </c>
       <c r="P19">
-        <v>0.1562474519309881</v>
+        <v>0.5211484087104626</v>
       </c>
       <c r="Q19">
-        <v>0.3519814762917777</v>
+        <v>3.459178376308666</v>
       </c>
       <c r="R19">
-        <v>3.167833286626</v>
+        <v>31.132605386778</v>
       </c>
       <c r="S19">
-        <v>0.01838581910014433</v>
+        <v>0.0475440012567404</v>
       </c>
       <c r="T19">
-        <v>0.01838581910014433</v>
+        <v>0.0475440012567404</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3437603333333333</v>
+        <v>0.3033006666666666</v>
       </c>
       <c r="H20">
-        <v>1.031281</v>
+        <v>0.9099019999999999</v>
       </c>
       <c r="I20">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301547</v>
       </c>
       <c r="J20">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301548</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1267253333333333</v>
+        <v>0.2091206666666666</v>
       </c>
       <c r="N20">
-        <v>0.380176</v>
+        <v>0.627362</v>
       </c>
       <c r="O20">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="P20">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="Q20">
-        <v>0.04356314282844444</v>
+        <v>0.06342643761377777</v>
       </c>
       <c r="R20">
-        <v>0.392068285456</v>
+        <v>0.5708379385239999</v>
       </c>
       <c r="S20">
-        <v>0.002275529019071392</v>
+        <v>0.0008717522780186737</v>
       </c>
       <c r="T20">
-        <v>0.002275529019071392</v>
+        <v>0.0008717522780186738</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3437603333333333</v>
+        <v>0.3033006666666666</v>
       </c>
       <c r="H21">
-        <v>1.031281</v>
+        <v>0.9099019999999999</v>
       </c>
       <c r="I21">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301547</v>
       </c>
       <c r="J21">
-        <v>0.1176711611800559</v>
+        <v>0.09122929373301548</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.238056</v>
+        <v>8.413654666666666</v>
       </c>
       <c r="N21">
-        <v>9.714167999999999</v>
+        <v>25.240964</v>
       </c>
       <c r="O21">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="P21">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="Q21">
-        <v>1.113115209912</v>
+        <v>2.55186706950311</v>
       </c>
       <c r="R21">
-        <v>10.018036889208</v>
+        <v>22.96680362552799</v>
       </c>
       <c r="S21">
-        <v>0.05814378387939981</v>
+        <v>0.03507363829238516</v>
       </c>
       <c r="T21">
-        <v>0.05814378387939981</v>
+        <v>0.03507363829238516</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5218146666666666</v>
+        <v>0.9344613333333333</v>
       </c>
       <c r="H22">
-        <v>1.565444</v>
+        <v>2.803384</v>
       </c>
       <c r="I22">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="J22">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.3206743333333333</v>
+        <v>0.01289566666666667</v>
       </c>
       <c r="N22">
-        <v>0.962023</v>
+        <v>0.038687</v>
       </c>
       <c r="O22">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389933</v>
       </c>
       <c r="P22">
-        <v>0.04893426814880036</v>
+        <v>0.0005892581829389932</v>
       </c>
       <c r="Q22">
-        <v>0.1673325703568889</v>
+        <v>0.01205050186755556</v>
       </c>
       <c r="R22">
-        <v>1.505993133212</v>
+        <v>0.108454516808</v>
       </c>
       <c r="S22">
-        <v>0.008740648515246315</v>
+        <v>0.0001656257682053372</v>
       </c>
       <c r="T22">
-        <v>0.008740648515246316</v>
+        <v>0.0001656257682053372</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5218146666666666</v>
+        <v>0.9344613333333333</v>
       </c>
       <c r="H23">
-        <v>1.565444</v>
+        <v>2.803384</v>
       </c>
       <c r="I23">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="J23">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.531382</v>
       </c>
       <c r="O23">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522487</v>
       </c>
       <c r="P23">
-        <v>0.2813593126374813</v>
+        <v>0.08425083636522486</v>
       </c>
       <c r="Q23">
-        <v>0.9621187515119999</v>
+        <v>1.722954199632</v>
       </c>
       <c r="R23">
-        <v>8.659068763607999</v>
+        <v>15.506587796688</v>
       </c>
       <c r="S23">
-        <v>0.05025645526724433</v>
+        <v>0.02368080732512665</v>
       </c>
       <c r="T23">
-        <v>0.05025645526724434</v>
+        <v>0.02368080732512665</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5218146666666666</v>
+        <v>0.9344613333333333</v>
       </c>
       <c r="H24">
-        <v>1.565444</v>
+        <v>2.803384</v>
       </c>
       <c r="I24">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="J24">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.023915333333333</v>
+        <v>11.405113</v>
       </c>
       <c r="N24">
-        <v>3.071746</v>
+        <v>34.215339</v>
       </c>
       <c r="O24">
-        <v>0.156247451930988</v>
+        <v>0.5211484087104628</v>
       </c>
       <c r="P24">
-        <v>0.1562474519309881</v>
+        <v>0.5211484087104626</v>
       </c>
       <c r="Q24">
-        <v>0.5342940383582222</v>
+        <v>10.65763710079733</v>
       </c>
       <c r="R24">
-        <v>4.808646345224</v>
+        <v>95.91873390717599</v>
       </c>
       <c r="S24">
-        <v>0.02790895032043289</v>
+        <v>0.1464818105896305</v>
       </c>
       <c r="T24">
-        <v>0.0279089503204329</v>
+        <v>0.1464818105896305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5218146666666666</v>
+        <v>0.9344613333333333</v>
       </c>
       <c r="H25">
-        <v>1.565444</v>
+        <v>2.803384</v>
       </c>
       <c r="I25">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="J25">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1267253333333333</v>
+        <v>0.2091206666666666</v>
       </c>
       <c r="N25">
-        <v>0.380176</v>
+        <v>0.627362</v>
       </c>
       <c r="O25">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="P25">
-        <v>0.01933803487831198</v>
+        <v>0.009555617963785578</v>
       </c>
       <c r="Q25">
-        <v>0.06612713757155556</v>
+        <v>0.1954151770008889</v>
       </c>
       <c r="R25">
-        <v>0.5951442381440001</v>
+        <v>1.758736593008</v>
       </c>
       <c r="S25">
-        <v>0.003454163559428707</v>
+        <v>0.002685845715429905</v>
       </c>
       <c r="T25">
-        <v>0.003454163559428708</v>
+        <v>0.002685845715429905</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5218146666666666</v>
+        <v>0.9344613333333333</v>
       </c>
       <c r="H26">
-        <v>1.565444</v>
+        <v>2.803384</v>
       </c>
       <c r="I26">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="J26">
-        <v>0.1786201949249055</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.238056</v>
+        <v>8.413654666666666</v>
       </c>
       <c r="N26">
-        <v>9.714167999999999</v>
+        <v>25.240964</v>
       </c>
       <c r="O26">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="P26">
-        <v>0.4941209324044183</v>
+        <v>0.3844558787775879</v>
       </c>
       <c r="Q26">
-        <v>1.689665112288</v>
+        <v>7.862234958019554</v>
       </c>
       <c r="R26">
-        <v>15.206986010592</v>
+        <v>70.76011462217599</v>
       </c>
       <c r="S26">
-        <v>0.08825997726255325</v>
+        <v>0.1080609520702888</v>
       </c>
       <c r="T26">
-        <v>0.08825997726255326</v>
+        <v>0.1080609520702887</v>
       </c>
     </row>
   </sheetData>
